--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -522,6 +522,9 @@
         <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
 blue_Trachymene Coerulea_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -583,7 +586,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05957105105150</v>
+        <v>05957105105155</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,9 +526,80 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>742_袋鼠爪绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>741_袋鼠爪红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>772_格桑花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>773_格桑花白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -586,7 +657,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05957105105155</v>
+        <v>059571051051551510510550000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -581,6 +581,9 @@
       <c r="C18" t="str">
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
+      <c r="F18" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
@@ -657,7 +660,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>059571051051551510510550000</v>
+        <v>059571051051551510510551000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -582,7 +582,7 @@
         <v>411_紫罗兰白_violet white_undefined_1bunch</v>
       </c>
       <c r="F18" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -660,7 +660,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>059571051051551510510551000</v>
+        <v>0595710510515515105105510000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -589,6 +589,9 @@
       <c r="C19" t="str">
         <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="C20" t="str">
@@ -660,7 +663,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0595710510515515105105510000</v>
+        <v>0595710510515515105105510500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -597,6 +597,9 @@
       <c r="C20" t="str">
         <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
       </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
@@ -663,7 +666,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0595710510515515105105510500</v>
+        <v>0595710510515515105105510550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -605,6 +605,9 @@
       <c r="C21" t="str">
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -666,7 +669,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0595710510515515105105510550</v>
+        <v>0595710510515515105105510555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,9 +609,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>4</v>
+      </c>
+      <c r="C26" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>657_大丽花 x元素_undefined_undefined_5stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>777_络新妇白_Astilbe white_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>469_络新妇粉_Astilbe pink_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -669,7 +749,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0595710510515515105105510555</v>
+        <v>059571051051551510510551055558515101055100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -688,6 +688,9 @@
       <c r="C31" t="str">
         <v>469_络新妇粉_Astilbe pink_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -749,7 +752,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>059571051051551510510551055558515101055100</v>
+        <v>059571051051551510510551055558515101055105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -692,9 +692,44 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L36"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -752,7 +787,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>059571051051551510510551055558515101055105</v>
+        <v>0595710510515515105105510555585151010551055101500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -721,6 +721,9 @@
       <c r="A35" t="str">
         <v>5</v>
       </c>
+      <c r="C35" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -729,6 +729,9 @@
       <c r="A36" t="str">
         <v>6</v>
       </c>
+      <c r="C36" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -724,6 +724,9 @@
       <c r="C35" t="str">
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F35" t="str">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -793,7 +796,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0595710510515515105105510555585151010551055101500</v>
+        <v>0595710510515515105105510555585151010551055101520</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -725,7 +725,7 @@
         <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F35" t="str">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -734,6 +734,9 @@
       </c>
       <c r="C36" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +799,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0595710510515515105105510555585151010551055101520</v>
+        <v>059571051051551510510551055558515101055105510152215</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-29.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-29.xlsx
@@ -801,6 +801,9 @@
       <c r="G2" t="str">
         <v>059571051051551510510551055558515101055105510152215</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
